--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_12_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_12_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52964.27866829159</v>
+        <v>10539891.45499002</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52964.27866829159</v>
+        <v>10539891.45499002</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122.7900335824927</v>
+        <v>13586.57140723147</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.7900335824927</v>
+        <v>13586.57140723147</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112408514.609734</v>
+        <v>45598494.94069516</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9267.476667194191</v>
+        <v>1021944.762978594</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17843.07050442846</v>
+        <v>1935721.872062605</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26414.86312954152</v>
+        <v>2848742.539934495</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35376.36472696314</v>
+        <v>3778243.490539264</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44255.18996074839</v>
+        <v>4691291.844780396</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53134.01519453363</v>
+        <v>5604340.199021527</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62012.84042831887</v>
+        <v>6517388.553262654</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70891.66566210412</v>
+        <v>7430436.907503782</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79787.97864704774</v>
+        <v>8343550.409219342</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88663.00266871176</v>
+        <v>9255842.322248347</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97541.827902497</v>
+        <v>10168890.67648948</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106069.3557858957</v>
+        <v>11066999.31679123</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114671.9576086883</v>
+        <v>11980047.67103236</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123278.718941202</v>
+        <v>12892680.45506635</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131897.7279973183</v>
+        <v>13803653.8874511</v>
       </c>
     </row>
   </sheetData>
